--- a/数据整理/stocks/A股/上证主板/600223-鲁商发展.xlsx
+++ b/数据整理/stocks/A股/上证主板/600223-鲁商发展.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -771,7 +772,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,17 +783,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -802,13 +823,253 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>011431</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1830</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004634</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006235</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方城镇消费主题混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011432</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007041</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>7</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.14</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600223-鲁商发展.xlsx
+++ b/数据整理/stocks/A股/上证主板/600223-鲁商发展.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1016,7 +1017,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1027,17 +1028,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1047,14 +1068,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.28</v>
+          <t>004634</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1063,13 +1106,155 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>006235</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方城镇消费主题混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007041</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>7</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.14</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600223-鲁商发展.xlsx
+++ b/数据整理/stocks/A股/上证主板/600223-鲁商发展.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1185,7 +1186,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1196,17 +1197,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1216,14 +1237,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.09</v>
+          <t>004634</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1232,14 +1275,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.28</v>
+          <t>006235</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方城镇消费主题混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1248,13 +1313,361 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>001265</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰兴益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003754</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰普益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002055</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰兴益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007041</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003755</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰普益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006231</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>78.30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006232</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>78.30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>7</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.14</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600223-鲁商发展.xlsx
+++ b/数据整理/stocks/A股/上证主板/600223-鲁商发展.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,317 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002604</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏新起点灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>49.55</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0484</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004634</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>新疆前海联合泳涛灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.98</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0436</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001613</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>长城久祥灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.61</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.02</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0223</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
+      <c r="D4" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000649</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>长城久鑫灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.53</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0176</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>002512</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>长城久润混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>89.98</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0111</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>008213</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华夏新起点灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>49.55</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>007041</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>新疆前海联合泳涛灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.98</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.14</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -774,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -825,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011431</t>
+          <t>004634</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰达宏利消费服务混合A</t>
+          <t>新疆前海联合泳涛灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.15</t>
+          <t>93.00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1830</t>
+          <t>0.0627</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -863,32 +643,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004634</t>
+          <t>006235</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>新疆前海联合泳涛灵活配置混合A</t>
+          <t>东方城镇消费主题混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.99</t>
+          <t>94.37</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0519</t>
+          <t>0.0312</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -901,36 +681,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006235</t>
+          <t>001265</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>东方城镇消费主题混合</t>
+          <t>国泰兴益灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>7.12</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.02</t>
+          <t>20.31</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0346</t>
+          <t>0.0299</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -939,32 +719,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011432</t>
+          <t>003754</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>泰达宏利消费服务混合C</t>
+          <t>国泰普益灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>5.61</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.15</t>
+          <t>20.17</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0082</t>
+          <t>0.0236</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -977,33 +757,185 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>002055</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰兴益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>007041</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>新疆前海联合泳涛灵活配置混合C</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003755</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰普益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006231</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>78.30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006232</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.99</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>78.30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
         <v>0</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H10" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1186,7 +1118,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1237,36 +1169,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004634</t>
+          <t>011431</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>新疆前海联合泳涛灵活配置混合A</t>
+          <t>泰达宏利消费服务混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.00</t>
+          <t>91.15</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0627</t>
+          <t>0.1830</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1275,32 +1207,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006235</t>
+          <t>004634</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>东方城镇消费主题混合</t>
+          <t>新疆前海联合泳涛灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.37</t>
+          <t>91.99</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0312</t>
+          <t>0.0519</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1313,36 +1245,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001265</t>
+          <t>006235</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国泰兴益灵活配置混合A</t>
+          <t>东方城镇消费主题混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.12</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>20.31</t>
+          <t>92.02</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0299</t>
+          <t>0.0346</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1351,32 +1283,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003754</t>
+          <t>011432</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国泰普益灵活配置混合A</t>
+          <t>泰达宏利消费服务混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.61</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>20.17</t>
+          <t>91.15</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0236</t>
+          <t>0.0082</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1389,185 +1321,33 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002055</t>
+          <t>007041</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国泰兴益灵活配置混合C</t>
+          <t>新疆前海联合泳涛灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>20.31</t>
+          <t>91.99</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0062</t>
-        </is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>007041</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>新疆前海联合泳涛灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.00</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0044</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>003755</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国泰普益灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>20.17</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0036</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>006231</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>国融融君灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>78.30</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0018</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>006232</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>国融融君灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>78.30</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1582,96 +1362,316 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>002604</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>49.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004634</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001613</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城久祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000649</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长城久鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>9</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002512</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长城久润混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.28</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.14</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008213</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>49.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007041</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600223-鲁商发展.xlsx
+++ b/数据整理/stocks/A股/上证主板/600223-鲁商发展.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.16</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.28</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>7</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -549,6 +566,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004634</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007041</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -944,7 +1093,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1112,7 +1261,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1356,7 +1505,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
